--- a/biology/Histoire de la zoologie et de la botanique/Abraham_Gagnebin/Abraham_Gagnebin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Abraham_Gagnebin/Abraham_Gagnebin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Gagnebin, né à Renan le 29 août 1707 et décédé à La Ferrière le 23 avril 1800, est un médecin et naturaliste suisse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a effectué ses études de médecine à l'Université de Bâle de 1721 à 1725. Il passe ensuite quelques années à La Ferrière, puis passe six ans comme médecin dans un régiment de mercenaires au service de la France, de 1728 à 1734[1]. Il en profite pour enrichir sa collection botanique[1].
-En 1735, il revient à La Ferrière où il exerce comme médecin[1]. Il consacre également son temps à sa passion des sciences[1]. À la fois chirurgien, botaniste, géologue et météorologue, il est en contact avec de grands savants — Jussieu, Réaumur, Albrecht von Haller — et consacre son temps à la botanique, à la minéralogie, à la zoologie. En 1765, il accueille Jean-Jacques Rousseau, exilé à l’île Saint-Pierre, pour une excursion botanique à La Ferrière d'une durée de deux semaines[1].
-Il écrit quelques ouvrages parmi lesquels un catalogue des plantes du comté de Neuchâtel et de l’Évêché de Bâle et collabore à diverses publications scientifiques. Il a utilisé la taxonomie binominale de Carl von Linné, son contemporain[1].
-Avec son frère Daniel, il aménage un cabinet de curiosités dans sa maison de La Ferrière[1]. On y voit des minéraux, des coquillages, des insectes, des animaux empaillés, des herbiers et des curiosités pour l’époque : une défense d’éléphant, une mâchoire de loup, un veau marin, un fragment de momie… La pièce de choix, c’est un fossile d'étoile de mer trouvée à La Ferrière, seul exemplaire du genre alors découvert en Europe dont il fait une description précise dans un article, et qui porte le nom d’Ophiura gagnebini.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a effectué ses études de médecine à l'Université de Bâle de 1721 à 1725. Il passe ensuite quelques années à La Ferrière, puis passe six ans comme médecin dans un régiment de mercenaires au service de la France, de 1728 à 1734. Il en profite pour enrichir sa collection botanique.
+En 1735, il revient à La Ferrière où il exerce comme médecin. Il consacre également son temps à sa passion des sciences. À la fois chirurgien, botaniste, géologue et météorologue, il est en contact avec de grands savants — Jussieu, Réaumur, Albrecht von Haller — et consacre son temps à la botanique, à la minéralogie, à la zoologie. En 1765, il accueille Jean-Jacques Rousseau, exilé à l’île Saint-Pierre, pour une excursion botanique à La Ferrière d'une durée de deux semaines.
+Il écrit quelques ouvrages parmi lesquels un catalogue des plantes du comté de Neuchâtel et de l’Évêché de Bâle et collabore à diverses publications scientifiques. Il a utilisé la taxonomie binominale de Carl von Linné, son contemporain.
+Avec son frère Daniel, il aménage un cabinet de curiosités dans sa maison de La Ferrière. On y voit des minéraux, des coquillages, des insectes, des animaux empaillés, des herbiers et des curiosités pour l’époque : une défense d’éléphant, une mâchoire de loup, un veau marin, un fragment de momie… La pièce de choix, c’est un fossile d'étoile de mer trouvée à La Ferrière, seul exemplaire du genre alors découvert en Europe dont il fait une description précise dans un article, et qui porte le nom d’Ophiura gagnebini.
 À sa mort, le 23 avril 1800, Abraham Gagnebin a acquis une grande renommée scientifique. La maison où il a résidé toute sa vie existe aujourd’hui encore à La Ferrière. Une plaque commémorative rappelle les mérites du savant et de son frère, qui a partagé la même passion des sciences naturelles.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abraham Gagnebin fut le premier à observer le bouleau nain dans les contrées suisses, découverte dont il fait part dans un article publié dans la revue Acta Helvetica et dont il liste dix stations toujours connues de nos jours[2],[3]. Dans le même périodique, il détailla la taxonomie et la synonymie de l'Ophris minima que l'on nomme aujourd'hui Neottia cordata ainsi que les différents systèmes de classification des auteurs botaniques[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham Gagnebin fut le premier à observer le bouleau nain dans les contrées suisses, découverte dont il fait part dans un article publié dans la revue Acta Helvetica et dont il liste dix stations toujours connues de nos jours,. Dans le même périodique, il détailla la taxonomie et la synonymie de l'Ophris minima que l'on nomme aujourd'hui Neottia cordata ainsi que les différents systèmes de classification des auteurs botaniques.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Bourguet et Pierre Cartier (en collaboration avec Abraham Gagnebin), Traité des pétrifications : avec figures, Paris, Briasson, 1742, 405 p. (lire en ligne)
 Abraham Gagnebin, « Description du bouleau nain, ou petit bouleau », Acta Helvetica Physico-Mathematico-Anatomico-Botanico-Medica, vol. 1,‎ 1751, p. 58-61 (lire en ligne )
@@ -616,7 +634,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'étoile de mer fossile Ophiura gagnebini (maintenant Enakomusium gagnebini),
 Le coquillage fossile Rostellaria gagnebini (maintenant Dicroloma gagnebini),
